--- a/biology/Médecine/Hôpital_général_du_Lakeshore/Hôpital_général_du_Lakeshore.xlsx
+++ b/biology/Médecine/Hôpital_général_du_Lakeshore/Hôpital_général_du_Lakeshore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_du_Lakeshore</t>
+          <t>Hôpital_général_du_Lakeshore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital général du Lakeshore est un hôpital situé à Pointe-Claire, sur l'Île de Montréal.
-L'hôpital compte 1 200 employés et 257 lits[1]. Il dessert une population estimée à 377 000 personnes dans l'Ouest-de-l'Île.
-L'hôpital est situé près des autoroutes 13, 20, 40, 520 ; et est souvent appelé à traiter des victimes d'accident. Sa salle d'urgence est l'une des plus occupées à Montréal avec plus de 72 000 visites annuellement[1].
-L'hôpital général du Lakeshore a ouvert ses portes en 1965[2]. Il fait partie du Centre de santé et de services sociaux de l'Ouest-de-l'Île (RUIS du Centre universitaire de santé McGill)[3].
+L'hôpital compte 1 200 employés et 257 lits. Il dessert une population estimée à 377 000 personnes dans l'Ouest-de-l'Île.
+L'hôpital est situé près des autoroutes 13, 20, 40, 520 ; et est souvent appelé à traiter des victimes d'accident. Sa salle d'urgence est l'une des plus occupées à Montréal avec plus de 72 000 visites annuellement.
+L'hôpital général du Lakeshore a ouvert ses portes en 1965. Il fait partie du Centre de santé et de services sociaux de l'Ouest-de-l'Île (RUIS du Centre universitaire de santé McGill).
 </t>
         </is>
       </c>
